--- a/data/Seeds_count.xlsx
+++ b/data/Seeds_count.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>Species</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>ALNINC01_HF</t>
+  </si>
+  <si>
+    <t>o</t>
   </si>
 </sst>
 </file>
@@ -154,12 +157,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -188,7 +197,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -467,18 +476,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -512,7 +522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -526,7 +536,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -540,7 +550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -554,7 +564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -568,7 +578,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -582,7 +592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -590,13 +600,16 @@
         <v>21</v>
       </c>
       <c r="C8" s="2">
-        <v>42895</v>
+        <v>42164</v>
       </c>
       <c r="D8">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -604,13 +617,13 @@
         <v>22</v>
       </c>
       <c r="C9" s="2">
-        <v>42896</v>
+        <v>42165</v>
       </c>
       <c r="D9">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -624,7 +637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -638,7 +651,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -652,7 +665,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -666,7 +679,7 @@
         <v>42278</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -677,7 +690,7 @@
         <v>41911</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -688,7 +701,7 @@
         <v>41920</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -733,6 +746,14 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="1" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/data/Seeds_count.xlsx
+++ b/data/Seeds_count.xlsx
@@ -1,36 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/freezingexperiment/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8600" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="1180" yWindow="0" windowWidth="8000" windowHeight="11980" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$19</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
   <si>
     <t>Species</t>
   </si>
@@ -150,6 +146,33 @@
   </si>
   <si>
     <t>o</t>
+  </si>
+  <si>
+    <t>PRUVIR</t>
+  </si>
+  <si>
+    <t>VACCOR</t>
+  </si>
+  <si>
+    <t>Wood Anatomy</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>ILEMUC</t>
+  </si>
+  <si>
+    <t>diffuse</t>
+  </si>
+  <si>
+    <t>ring</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>shrub</t>
   </si>
 </sst>
 </file>
@@ -256,7 +279,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -291,7 +314,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -468,7 +491,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -476,19 +499,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -508,7 +531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -522,7 +545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -536,7 +559,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -550,7 +573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -564,7 +587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -578,7 +601,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -592,7 +615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -609,7 +632,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -623,7 +646,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -637,7 +660,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -651,7 +674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -665,7 +688,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -679,7 +702,7 @@
         <v>42278</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -690,7 +713,7 @@
         <v>41911</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -701,7 +724,7 @@
         <v>41920</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -712,7 +735,7 @@
         <v>41929</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -723,7 +746,7 @@
         <v>41914</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -734,7 +757,7 @@
         <v>41947</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -743,17 +766,156 @@
       </c>
       <c r="C19" s="2">
         <v>41911</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="100"/>
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>